--- a/NON-COVID Player Stats/RB/RB_aggregate.xlsx
+++ b/NON-COVID Player Stats/RB/RB_aggregate.xlsx
@@ -452,7 +452,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,25 +468,20 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Season Group</t>
+          <t>Y/A</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Y/A</t>
+          <t>Y/R</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Y/R</t>
+          <t>Succ%</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Succ%</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>1D</t>
         </is>
@@ -498,502 +493,131 @@
           <t>Dare Ogunbowale</t>
         </is>
       </c>
-      <c r="B2" s="2" t="inlineStr">
-        <is>
-          <t>Group1</t>
-        </is>
+      <c r="B2" s="2" t="n">
+        <v>19.56521739130435</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>3.066666666666666</v>
+        <v>9.821428571428598</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>7.466666666666666</v>
+        <v>5.4005400540054</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>37.03333333333334</v>
-      </c>
-      <c r="F2" s="2" t="n">
-        <v>4.666666666666667</v>
+        <v>21.42857142857143</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="inlineStr">
-        <is>
-          <t>Dare Ogunbowale</t>
-        </is>
-      </c>
-      <c r="B3" s="2" t="inlineStr">
-        <is>
-          <t>Group2</t>
-        </is>
-      </c>
-      <c r="C3" s="2" t="n">
-        <v>3.666666666666667</v>
-      </c>
-      <c r="D3" s="2" t="n">
-        <v>8.200000000000001</v>
-      </c>
-      <c r="E3" s="2" t="n">
-        <v>39.03333333333334</v>
-      </c>
-      <c r="F3" s="2" t="n">
-        <v>5.666666666666667</v>
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>Derrick Henry</t>
+        </is>
+      </c>
+      <c r="B3" s="3" t="n">
+        <v>-2.02702702702702</v>
+      </c>
+      <c r="C3" s="3" t="n">
+        <v>15.00000000000001</v>
+      </c>
+      <c r="D3" s="3" t="n">
+        <v>0.7308970099667925</v>
+      </c>
+      <c r="E3" s="3" t="n">
+        <v>0.9090909090909156</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>Dare Ogunbowale</t>
-        </is>
-      </c>
-      <c r="B4" s="2" t="inlineStr">
-        <is>
-          <t>Difference</t>
-        </is>
+          <t>Jeff Wilson</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>5.645161290322583</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>0.6000000000000001</v>
+        <v>-19.56241956241957</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>0.7333333333333352</v>
+        <v>-4.081182439885288</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="F4" s="2" t="n">
-        <v>1</v>
+        <v>-32.7683615819209</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>Derrick Henry</t>
-        </is>
-      </c>
-      <c r="B5" s="3" t="inlineStr">
-        <is>
-          <t>Group1</t>
-        </is>
+          <t>Joe Mixon</t>
+        </is>
+      </c>
+      <c r="B5" s="3" t="n">
+        <v>1.694915254237293</v>
       </c>
       <c r="C5" s="3" t="n">
-        <v>4.933333333333334</v>
+        <v>4.035874439461906</v>
       </c>
       <c r="D5" s="3" t="n">
-        <v>8.666666666666666</v>
+        <v>2.124645892351275</v>
       </c>
       <c r="E5" s="3" t="n">
-        <v>50.16666666666666</v>
-      </c>
-      <c r="F5" s="3" t="n">
-        <v>73.33333333333333</v>
+        <v>16.17647058823528</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="inlineStr">
-        <is>
-          <t>Derrick Henry</t>
-        </is>
-      </c>
-      <c r="B6" s="3" t="inlineStr">
-        <is>
-          <t>Group2</t>
-        </is>
-      </c>
-      <c r="C6" s="3" t="n">
-        <v>4.833333333333334</v>
-      </c>
-      <c r="D6" s="3" t="n">
-        <v>9.966666666666667</v>
-      </c>
-      <c r="E6" s="3" t="n">
-        <v>50.53333333333334</v>
-      </c>
-      <c r="F6" s="3" t="n">
-        <v>74</v>
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>Miles Sanders</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>-22.72727272727273</v>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>-32.18884120171673</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>-10.14492753623188</v>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>-3.921568627450987</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="inlineStr">
         <is>
-          <t>Derrick Henry</t>
-        </is>
-      </c>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>Difference</t>
-        </is>
+          <t>Travis Homer</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="n">
+        <v>-36.53846153846155</v>
       </c>
       <c r="C7" s="3" t="n">
-        <v>-0.09999999999999964</v>
+        <v>-19.64285714285715</v>
       </c>
       <c r="D7" s="3" t="n">
-        <v>1.300000000000001</v>
+        <v>16.3494221617947</v>
       </c>
       <c r="E7" s="3" t="n">
-        <v>0.3666666666666742</v>
-      </c>
-      <c r="F7" s="3" t="n">
-        <v>0.6666666666666714</v>
+        <v>-60</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>Jeff Wilson</t>
-        </is>
-      </c>
-      <c r="B8" s="2" t="inlineStr">
-        <is>
-          <t>Group1</t>
-        </is>
+          <t>Ty Johnson</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="n">
+        <v>15.50387596899223</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>4.133333333333333</v>
+        <v>48.14814814814813</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>8.633333333333333</v>
+        <v>13.94230769230771</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>50.36666666666667</v>
-      </c>
-      <c r="F8" s="2" t="n">
-        <v>19.66666666666667</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="inlineStr">
-        <is>
-          <t>Jeff Wilson</t>
-        </is>
-      </c>
-      <c r="B9" s="2" t="inlineStr">
-        <is>
-          <t>Group2</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="n">
-        <v>4.366666666666666</v>
-      </c>
-      <c r="D9" s="2" t="n">
-        <v>6.944444444444444</v>
-      </c>
-      <c r="E9" s="2" t="n">
-        <v>48.31111111111111</v>
-      </c>
-      <c r="F9" s="2" t="n">
-        <v>13.22222222222222</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="inlineStr">
-        <is>
-          <t>Jeff Wilson</t>
-        </is>
-      </c>
-      <c r="B10" s="2" t="inlineStr">
-        <is>
-          <t>Difference</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="n">
-        <v>0.2333333333333334</v>
-      </c>
-      <c r="D10" s="2" t="n">
-        <v>-1.688888888888889</v>
-      </c>
-      <c r="E10" s="2" t="n">
-        <v>-2.055555555555557</v>
-      </c>
-      <c r="F10" s="2" t="n">
-        <v>-6.444444444444445</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="inlineStr">
-        <is>
-          <t>Joe Mixon</t>
-        </is>
-      </c>
-      <c r="B11" s="3" t="inlineStr">
-        <is>
-          <t>Group1</t>
-        </is>
-      </c>
-      <c r="C11" s="3" t="n">
-        <v>3.933333333333333</v>
-      </c>
-      <c r="D11" s="3" t="n">
-        <v>7.433333333333333</v>
-      </c>
-      <c r="E11" s="3" t="n">
-        <v>47.06666666666666</v>
-      </c>
-      <c r="F11" s="3" t="n">
-        <v>45.33333333333334</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="3" t="inlineStr">
-        <is>
-          <t>Joe Mixon</t>
-        </is>
-      </c>
-      <c r="B12" s="3" t="inlineStr">
-        <is>
-          <t>Group2</t>
-        </is>
-      </c>
-      <c r="C12" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D12" s="3" t="n">
-        <v>7.733333333333334</v>
-      </c>
-      <c r="E12" s="3" t="n">
-        <v>48.06666666666666</v>
-      </c>
-      <c r="F12" s="3" t="n">
-        <v>52.66666666666666</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="3" t="inlineStr">
-        <is>
-          <t>Joe Mixon</t>
-        </is>
-      </c>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>Difference</t>
-        </is>
-      </c>
-      <c r="C13" s="3" t="n">
-        <v>0.06666666666666687</v>
-      </c>
-      <c r="D13" s="3" t="n">
-        <v>0.3000000000000016</v>
-      </c>
-      <c r="E13" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F13" s="3" t="n">
-        <v>7.333333333333329</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="inlineStr">
-        <is>
-          <t>Miles Sanders</t>
-        </is>
-      </c>
-      <c r="B14" s="2" t="inlineStr">
-        <is>
-          <t>Group1</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="n">
-        <v>5.133333333333333</v>
-      </c>
-      <c r="D14" s="2" t="n">
-        <v>7.766666666666666</v>
-      </c>
-      <c r="E14" s="2" t="n">
-        <v>52.9</v>
-      </c>
-      <c r="F14" s="2" t="n">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="inlineStr">
-        <is>
-          <t>Miles Sanders</t>
-        </is>
-      </c>
-      <c r="B15" s="2" t="inlineStr">
-        <is>
-          <t>Group2</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="n">
-        <v>3.966666666666666</v>
-      </c>
-      <c r="D15" s="2" t="n">
-        <v>5.266666666666667</v>
-      </c>
-      <c r="E15" s="2" t="n">
-        <v>47.53333333333333</v>
-      </c>
-      <c r="F15" s="2" t="n">
-        <v>32.66666666666666</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="inlineStr">
-        <is>
-          <t>Miles Sanders</t>
-        </is>
-      </c>
-      <c r="B16" s="2" t="inlineStr">
-        <is>
-          <t>Difference</t>
-        </is>
-      </c>
-      <c r="C16" s="2" t="n">
-        <v>-1.166666666666667</v>
-      </c>
-      <c r="D16" s="2" t="n">
-        <v>-2.499999999999999</v>
-      </c>
-      <c r="E16" s="2" t="n">
-        <v>-5.366666666666667</v>
-      </c>
-      <c r="F16" s="2" t="n">
-        <v>-1.333333333333336</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="3" t="inlineStr">
-        <is>
-          <t>Travis Homer</t>
-        </is>
-      </c>
-      <c r="B17" s="3" t="inlineStr">
-        <is>
-          <t>Group1</t>
-        </is>
-      </c>
-      <c r="C17" s="3" t="n">
-        <v>6.066666666666667</v>
-      </c>
-      <c r="D17" s="3" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="E17" s="3" t="n">
-        <v>49.03333333333333</v>
-      </c>
-      <c r="F17" s="3" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="3" t="inlineStr">
-        <is>
-          <t>Travis Homer</t>
-        </is>
-      </c>
-      <c r="B18" s="3" t="inlineStr">
-        <is>
-          <t>Group2</t>
-        </is>
-      </c>
-      <c r="C18" s="3" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="D18" s="3" t="n">
-        <v>6.75</v>
-      </c>
-      <c r="E18" s="3" t="n">
-        <v>57.05</v>
-      </c>
-      <c r="F18" s="3" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="3" t="inlineStr">
-        <is>
-          <t>Travis Homer</t>
-        </is>
-      </c>
-      <c r="B19" s="3" t="inlineStr">
-        <is>
-          <t>Difference</t>
-        </is>
-      </c>
-      <c r="C19" s="3" t="n">
-        <v>-2.216666666666668</v>
-      </c>
-      <c r="D19" s="3" t="n">
-        <v>-1.65</v>
-      </c>
-      <c r="E19" s="3" t="n">
-        <v>8.016666666666666</v>
-      </c>
-      <c r="F19" s="3" t="n">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="inlineStr">
-        <is>
-          <t>Ty Johnson</t>
-        </is>
-      </c>
-      <c r="B20" s="2" t="inlineStr">
-        <is>
-          <t>Group1</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="D20" s="2" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="E20" s="2" t="n">
-        <v>48.53333333333333</v>
-      </c>
-      <c r="F20" s="2" t="n">
-        <v>10.44444444444444</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="inlineStr">
-        <is>
-          <t>Ty Johnson</t>
-        </is>
-      </c>
-      <c r="B21" s="2" t="inlineStr">
-        <is>
-          <t>Group2</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="n">
-        <v>4.966666666666666</v>
-      </c>
-      <c r="D21" s="2" t="n">
-        <v>10.66666666666667</v>
-      </c>
-      <c r="E21" s="2" t="n">
-        <v>55.3</v>
-      </c>
-      <c r="F21" s="2" t="n">
-        <v>8.666666666666666</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="inlineStr">
-        <is>
-          <t>Ty Johnson</t>
-        </is>
-      </c>
-      <c r="B22" s="2" t="inlineStr">
-        <is>
-          <t>Difference</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="n">
-        <v>0.6666666666666661</v>
-      </c>
-      <c r="D22" s="2" t="n">
-        <v>3.466666666666666</v>
-      </c>
-      <c r="E22" s="2" t="n">
-        <v>6.766666666666673</v>
-      </c>
-      <c r="F22" s="2" t="n">
-        <v>-1.777777777777779</v>
+        <v>-17.02127659574469</v>
       </c>
     </row>
   </sheetData>

--- a/NON-COVID Player Stats/RB/RB_aggregate.xlsx
+++ b/NON-COVID Player Stats/RB/RB_aggregate.xlsx
@@ -1,12 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -25,12 +26,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="Calibri"/>
-      <family val="2"/>
       <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -62,19 +58,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -89,7 +76,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -452,9 +439,9 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -468,20 +455,25 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Season Group</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Y/A</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Y/R</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Succ%</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>1D</t>
         </is>
@@ -493,134 +485,505 @@
           <t>Dare Ogunbowale</t>
         </is>
       </c>
-      <c r="B2" s="2" t="n">
-        <v>19.56521739130435</v>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>Group1</t>
+        </is>
       </c>
       <c r="C2" s="2" t="n">
-        <v>9.821428571428598</v>
+        <v>3.066666666666666</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>5.4005400540054</v>
+        <v>7.466666666666666</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>21.42857142857143</v>
+        <v>37.03333333333334</v>
+      </c>
+      <c r="F2" s="2" t="n">
+        <v>4.666666666666667</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="inlineStr">
-        <is>
-          <t>Derrick Henry</t>
-        </is>
-      </c>
-      <c r="B3" s="3" t="n">
-        <v>-2.02702702702702</v>
-      </c>
-      <c r="C3" s="3" t="n">
-        <v>15.00000000000001</v>
-      </c>
-      <c r="D3" s="3" t="n">
-        <v>0.7308970099667925</v>
-      </c>
-      <c r="E3" s="3" t="n">
-        <v>0.9090909090909156</v>
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>Dare Ogunbowale</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>Group2</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>3.666666666666667</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>8.200000000000001</v>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>39.03333333333334</v>
+      </c>
+      <c r="F3" s="2" t="n">
+        <v>5.666666666666667</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>Jeff Wilson</t>
-        </is>
-      </c>
-      <c r="B4" s="2" t="n">
-        <v>5.645161290322583</v>
+          <t>Dare Ogunbowale</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>Difference</t>
+        </is>
       </c>
       <c r="C4" s="2" t="n">
-        <v>-19.56241956241957</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>-4.081182439885288</v>
+        <v>0.7333333333333352</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>-32.7683615819209</v>
+        <v>2</v>
+      </c>
+      <c r="F4" s="2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>Joe Mixon</t>
-        </is>
-      </c>
-      <c r="B5" s="3" t="n">
-        <v>1.694915254237293</v>
+          <t>Derrick Henry</t>
+        </is>
+      </c>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>Group1</t>
+        </is>
       </c>
       <c r="C5" s="3" t="n">
-        <v>4.035874439461906</v>
+        <v>4.933333333333334</v>
       </c>
       <c r="D5" s="3" t="n">
-        <v>2.124645892351275</v>
+        <v>8.666666666666666</v>
       </c>
       <c r="E5" s="3" t="n">
-        <v>16.17647058823528</v>
+        <v>50.16666666666666</v>
+      </c>
+      <c r="F5" s="3" t="n">
+        <v>73.33333333333333</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="inlineStr">
-        <is>
-          <t>Miles Sanders</t>
-        </is>
-      </c>
-      <c r="B6" s="2" t="n">
-        <v>-22.72727272727273</v>
-      </c>
-      <c r="C6" s="2" t="n">
-        <v>-32.18884120171673</v>
-      </c>
-      <c r="D6" s="2" t="n">
-        <v>-10.14492753623188</v>
-      </c>
-      <c r="E6" s="2" t="n">
-        <v>-3.921568627450987</v>
+      <c r="A6" s="3" t="inlineStr">
+        <is>
+          <t>Derrick Henry</t>
+        </is>
+      </c>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>Group2</t>
+        </is>
+      </c>
+      <c r="C6" s="3" t="n">
+        <v>4.833333333333334</v>
+      </c>
+      <c r="D6" s="3" t="n">
+        <v>9.966666666666667</v>
+      </c>
+      <c r="E6" s="3" t="n">
+        <v>50.53333333333334</v>
+      </c>
+      <c r="F6" s="3" t="n">
+        <v>74</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="inlineStr">
         <is>
-          <t>Travis Homer</t>
-        </is>
-      </c>
-      <c r="B7" s="3" t="n">
-        <v>-36.53846153846155</v>
+          <t>Derrick Henry</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>Difference</t>
+        </is>
       </c>
       <c r="C7" s="3" t="n">
-        <v>-19.64285714285715</v>
+        <v>-0.09999999999999964</v>
       </c>
       <c r="D7" s="3" t="n">
-        <v>16.3494221617947</v>
+        <v>1.300000000000001</v>
       </c>
       <c r="E7" s="3" t="n">
-        <v>-60</v>
+        <v>0.3666666666666742</v>
+      </c>
+      <c r="F7" s="3" t="n">
+        <v>0.6666666666666714</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
+          <t>Jeff Wilson</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>Group1</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>4.133333333333333</v>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>8.633333333333333</v>
+      </c>
+      <c r="E8" s="2" t="n">
+        <v>50.36666666666667</v>
+      </c>
+      <c r="F8" s="2" t="n">
+        <v>19.66666666666667</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="inlineStr">
+        <is>
+          <t>Jeff Wilson</t>
+        </is>
+      </c>
+      <c r="B9" s="2" t="inlineStr">
+        <is>
+          <t>Group2</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="n">
+        <v>4.366666666666666</v>
+      </c>
+      <c r="D9" s="2" t="n">
+        <v>6.944444444444444</v>
+      </c>
+      <c r="E9" s="2" t="n">
+        <v>48.31111111111111</v>
+      </c>
+      <c r="F9" s="2" t="n">
+        <v>13.22222222222222</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>Jeff Wilson</t>
+        </is>
+      </c>
+      <c r="B10" s="2" t="inlineStr">
+        <is>
+          <t>Difference</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="n">
+        <v>0.2333333333333334</v>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>-1.688888888888889</v>
+      </c>
+      <c r="E10" s="2" t="n">
+        <v>-2.055555555555557</v>
+      </c>
+      <c r="F10" s="2" t="n">
+        <v>-6.444444444444445</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="inlineStr">
+        <is>
+          <t>Joe Mixon</t>
+        </is>
+      </c>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>Group1</t>
+        </is>
+      </c>
+      <c r="C11" s="3" t="n">
+        <v>3.933333333333333</v>
+      </c>
+      <c r="D11" s="3" t="n">
+        <v>7.433333333333333</v>
+      </c>
+      <c r="E11" s="3" t="n">
+        <v>47.06666666666666</v>
+      </c>
+      <c r="F11" s="3" t="n">
+        <v>45.33333333333334</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="inlineStr">
+        <is>
+          <t>Joe Mixon</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Group2</t>
+        </is>
+      </c>
+      <c r="C12" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D12" s="3" t="n">
+        <v>7.733333333333334</v>
+      </c>
+      <c r="E12" s="3" t="n">
+        <v>48.06666666666666</v>
+      </c>
+      <c r="F12" s="3" t="n">
+        <v>52.66666666666666</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="inlineStr">
+        <is>
+          <t>Joe Mixon</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Difference</t>
+        </is>
+      </c>
+      <c r="C13" s="3" t="n">
+        <v>0.06666666666666687</v>
+      </c>
+      <c r="D13" s="3" t="n">
+        <v>0.3000000000000016</v>
+      </c>
+      <c r="E13" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" s="3" t="n">
+        <v>7.333333333333329</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="inlineStr">
+        <is>
+          <t>Miles Sanders</t>
+        </is>
+      </c>
+      <c r="B14" s="2" t="inlineStr">
+        <is>
+          <t>Group1</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="n">
+        <v>5.133333333333333</v>
+      </c>
+      <c r="D14" s="2" t="n">
+        <v>7.766666666666666</v>
+      </c>
+      <c r="E14" s="2" t="n">
+        <v>52.9</v>
+      </c>
+      <c r="F14" s="2" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="inlineStr">
+        <is>
+          <t>Miles Sanders</t>
+        </is>
+      </c>
+      <c r="B15" s="2" t="inlineStr">
+        <is>
+          <t>Group2</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="n">
+        <v>3.966666666666666</v>
+      </c>
+      <c r="D15" s="2" t="n">
+        <v>5.266666666666667</v>
+      </c>
+      <c r="E15" s="2" t="n">
+        <v>47.53333333333333</v>
+      </c>
+      <c r="F15" s="2" t="n">
+        <v>32.66666666666666</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="inlineStr">
+        <is>
+          <t>Miles Sanders</t>
+        </is>
+      </c>
+      <c r="B16" s="2" t="inlineStr">
+        <is>
+          <t>Difference</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="n">
+        <v>-1.166666666666667</v>
+      </c>
+      <c r="D16" s="2" t="n">
+        <v>-2.499999999999999</v>
+      </c>
+      <c r="E16" s="2" t="n">
+        <v>-5.366666666666667</v>
+      </c>
+      <c r="F16" s="2" t="n">
+        <v>-1.333333333333336</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="inlineStr">
+        <is>
+          <t>Travis Homer</t>
+        </is>
+      </c>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>Group1</t>
+        </is>
+      </c>
+      <c r="C17" s="3" t="n">
+        <v>6.066666666666667</v>
+      </c>
+      <c r="D17" s="3" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="E17" s="3" t="n">
+        <v>49.03333333333333</v>
+      </c>
+      <c r="F17" s="3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="3" t="inlineStr">
+        <is>
+          <t>Travis Homer</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Group2</t>
+        </is>
+      </c>
+      <c r="C18" s="3" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="D18" s="3" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="E18" s="3" t="n">
+        <v>57.05</v>
+      </c>
+      <c r="F18" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="inlineStr">
+        <is>
+          <t>Travis Homer</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>Difference</t>
+        </is>
+      </c>
+      <c r="C19" s="3" t="n">
+        <v>-2.216666666666668</v>
+      </c>
+      <c r="D19" s="3" t="n">
+        <v>-1.65</v>
+      </c>
+      <c r="E19" s="3" t="n">
+        <v>8.016666666666666</v>
+      </c>
+      <c r="F19" s="3" t="n">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="inlineStr">
+        <is>
           <t>Ty Johnson</t>
         </is>
       </c>
-      <c r="B8" s="2" t="n">
-        <v>15.50387596899223</v>
-      </c>
-      <c r="C8" s="2" t="n">
-        <v>48.14814814814813</v>
-      </c>
-      <c r="D8" s="2" t="n">
-        <v>13.94230769230771</v>
-      </c>
-      <c r="E8" s="2" t="n">
-        <v>-17.02127659574469</v>
+      <c r="B20" s="2" t="inlineStr">
+        <is>
+          <t>Group1</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="D20" s="2" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="E20" s="2" t="n">
+        <v>48.53333333333333</v>
+      </c>
+      <c r="F20" s="2" t="n">
+        <v>10.44444444444444</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="inlineStr">
+        <is>
+          <t>Ty Johnson</t>
+        </is>
+      </c>
+      <c r="B21" s="2" t="inlineStr">
+        <is>
+          <t>Group2</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="n">
+        <v>4.966666666666666</v>
+      </c>
+      <c r="D21" s="2" t="n">
+        <v>10.66666666666667</v>
+      </c>
+      <c r="E21" s="2" t="n">
+        <v>55.3</v>
+      </c>
+      <c r="F21" s="2" t="n">
+        <v>8.666666666666666</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="inlineStr">
+        <is>
+          <t>Ty Johnson</t>
+        </is>
+      </c>
+      <c r="B22" s="2" t="inlineStr">
+        <is>
+          <t>Difference</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="n">
+        <v>0.6666666666666661</v>
+      </c>
+      <c r="D22" s="2" t="n">
+        <v>3.466666666666666</v>
+      </c>
+      <c r="E22" s="2" t="n">
+        <v>6.766666666666673</v>
+      </c>
+      <c r="F22" s="2" t="n">
+        <v>-1.777777777777779</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>